--- a/Supplementary Table 3.xlsx
+++ b/Supplementary Table 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cotinga/jsb439@cornell.edu/Code/avian_molecular_shifts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC4FA74-EEA7-5942-8854-498E1C2077A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209634AB-D957-104C-8FE2-DF85194AB8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="680" windowWidth="29260" windowHeight="18200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8180" yWindow="3360" windowWidth="28900" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mtDNA reassembly" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="761">
   <si>
     <t>Reference mitogenome</t>
   </si>
@@ -2291,9 +2291,6 @@
     <t>McCullough, J.M., Moyle, R.G., Smith, B.T., Andersen, M.J., 2019. A Laurasian origin for a pantropical bird radiation is supported by genomic and fossil data (Aves: Coraciiformes). Proceedings of the Royal Society B: Biological Sciences 286, 20190122.</t>
   </si>
   <si>
-    <t>File name (Trinity assemblies)</t>
-  </si>
-  <si>
     <t>https://github.com/jakeberv/avian_molecular_shifts/tree/main/AHE_REASSEMBLY/bioinformatics_pipeline/raw_trinity_assemblies.tar.xz</t>
   </si>
   <si>
@@ -2313,6 +2310,15 @@
   </si>
   <si>
     <t>Trinity assemblies:</t>
+  </si>
+  <si>
+    <t>Original file name (Trinity assemblies)</t>
+  </si>
+  <si>
+    <t>Notes: Trinity assembly filename corresponds to the re-assembled dataset from Prum et al 2015, with species names corresponding to those in column B, matching those in Supplementary Table 1 of Prum et al 2015.</t>
+  </si>
+  <si>
+    <t>Column F contains the names that describe the species names in the exported data (after phyogenetic swaps), with source specified in column E</t>
   </si>
 </sst>
 </file>
@@ -2365,12 +2371,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2428,16 +2440,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2820,16 +2836,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A43B399-1637-F847-8475-0F58DB547BC3}">
-  <dimension ref="A1:Z212"/>
+  <dimension ref="A1:Z214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
@@ -2856,10 +2872,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>410</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2936,10 +2952,10 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>417</v>
       </c>
       <c r="C2" t="s">
@@ -2974,10 +2990,10 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -3012,10 +3028,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -3050,10 +3066,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -3088,10 +3104,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -3126,10 +3142,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -3164,10 +3180,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
@@ -3202,10 +3218,10 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -3240,10 +3256,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
@@ -3278,10 +3294,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C11" t="s">
@@ -3316,10 +3332,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
@@ -3354,10 +3370,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
@@ -3392,10 +3408,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -3430,10 +3446,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
@@ -3468,10 +3484,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
@@ -3506,10 +3522,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
@@ -3544,10 +3560,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
@@ -3582,10 +3598,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
@@ -3620,10 +3636,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
@@ -3658,10 +3674,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
@@ -3671,7 +3687,7 @@
         <v>435</v>
       </c>
       <c r="E21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -3696,10 +3712,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
@@ -3734,10 +3750,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
@@ -3772,10 +3788,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
@@ -3810,10 +3826,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
@@ -3848,10 +3864,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
@@ -3886,10 +3902,10 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
@@ -3924,10 +3940,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>435</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>435</v>
       </c>
       <c r="C28" t="s">
@@ -3962,10 +3978,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
@@ -4000,10 +4016,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
@@ -4038,10 +4054,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
@@ -4076,10 +4092,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C32" t="s">
@@ -4114,10 +4130,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C33" t="s">
@@ -4152,10 +4168,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
@@ -4190,10 +4206,10 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>435</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>473</v>
       </c>
       <c r="C35" t="s">
@@ -4228,10 +4244,10 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C36" t="s">
@@ -4266,10 +4282,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C37" t="s">
@@ -4304,10 +4320,10 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C38" t="s">
@@ -4342,10 +4358,10 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C39" t="s">
@@ -4380,10 +4396,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C40" t="s">
@@ -4418,10 +4434,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C41" t="s">
@@ -4456,10 +4472,10 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C42" t="s">
@@ -4494,10 +4510,10 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C43" t="s">
@@ -4532,10 +4548,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>435</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>488</v>
       </c>
       <c r="C44" t="s">
@@ -4570,10 +4586,10 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C45" t="s">
@@ -4608,10 +4624,10 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C46" t="s">
@@ -4646,10 +4662,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C47" t="s">
@@ -4684,10 +4700,10 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C48" t="s">
@@ -4722,10 +4738,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C49" t="s">
@@ -4760,10 +4776,10 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C50" t="s">
@@ -4798,10 +4814,10 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C51" t="s">
@@ -4836,10 +4852,10 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C52" t="s">
@@ -4874,10 +4890,10 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C53" t="s">
@@ -4912,10 +4928,10 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C54" t="s">
@@ -4950,10 +4966,10 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C55" t="s">
@@ -4988,10 +5004,10 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C56" t="s">
@@ -5026,10 +5042,10 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C57" t="s">
@@ -5064,10 +5080,10 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>435</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>435</v>
       </c>
       <c r="C58" t="s">
@@ -5102,10 +5118,10 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C59" t="s">
@@ -5140,10 +5156,10 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="10" t="s">
         <v>401</v>
       </c>
       <c r="C60" t="s">
@@ -5178,10 +5194,10 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C61" t="s">
@@ -5216,10 +5232,10 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C62" t="s">
@@ -5229,7 +5245,7 @@
         <v>435</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F62" t="s">
         <v>518</v>
@@ -5254,10 +5270,10 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C63" t="s">
@@ -5292,10 +5308,10 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C64" t="s">
@@ -5330,10 +5346,10 @@
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>435</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>520</v>
       </c>
       <c r="C65" t="s">
@@ -5368,10 +5384,10 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C66" t="s">
@@ -5406,10 +5422,10 @@
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C67" t="s">
@@ -5453,10 +5469,10 @@
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C68" t="s">
@@ -5491,10 +5507,10 @@
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C69" t="s">
@@ -5529,10 +5545,10 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C70" t="s">
@@ -5567,10 +5583,10 @@
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C71" t="s">
@@ -5580,7 +5596,7 @@
         <v>435</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F71" t="s">
         <v>62</v>
@@ -5605,10 +5621,10 @@
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C72" t="s">
@@ -5643,10 +5659,10 @@
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C73" t="s">
@@ -5681,10 +5697,10 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C74" t="s">
@@ -5719,10 +5735,10 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C75" t="s">
@@ -5757,10 +5773,10 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C76" t="s">
@@ -5795,10 +5811,10 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C77" t="s">
@@ -5833,10 +5849,10 @@
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C78" t="s">
@@ -5871,10 +5887,10 @@
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C79" t="s">
@@ -5909,10 +5925,10 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C80" t="s">
@@ -5947,10 +5963,10 @@
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C81" t="s">
@@ -5985,10 +6001,10 @@
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C82" t="s">
@@ -6023,10 +6039,10 @@
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C83" t="s">
@@ -6061,10 +6077,10 @@
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C84" t="s">
@@ -6099,10 +6115,10 @@
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C85" t="s">
@@ -6137,10 +6153,10 @@
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C86" t="s">
@@ -6181,10 +6197,10 @@
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C87" t="s">
@@ -6231,10 +6247,10 @@
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C88" t="s">
@@ -6269,10 +6285,10 @@
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C89" t="s">
@@ -6307,10 +6323,10 @@
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C90" t="s">
@@ -6345,10 +6361,10 @@
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C91" t="s">
@@ -6383,10 +6399,10 @@
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C92" t="s">
@@ -6421,10 +6437,10 @@
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C93" t="s">
@@ -6459,10 +6475,10 @@
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C94" t="s">
@@ -6497,10 +6513,10 @@
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C95" t="s">
@@ -6541,10 +6557,10 @@
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C96" t="s">
@@ -6579,10 +6595,10 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C97" t="s">
@@ -6617,10 +6633,10 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C98" t="s">
@@ -6655,10 +6671,10 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C99" t="s">
@@ -6693,10 +6709,10 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C100" t="s">
@@ -6731,10 +6747,10 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C101" t="s">
@@ -6769,10 +6785,10 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C102" t="s">
@@ -6807,10 +6823,10 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C103" t="s">
@@ -6845,10 +6861,10 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C104" t="s">
@@ -6883,10 +6899,10 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C105" t="s">
@@ -6921,10 +6937,10 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C106" t="s">
@@ -6959,10 +6975,10 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C107" t="s">
@@ -6997,10 +7013,10 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C108" t="s">
@@ -7035,10 +7051,10 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C109" t="s">
@@ -7073,10 +7089,10 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C110" t="s">
@@ -7111,10 +7127,10 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C111" t="s">
@@ -7149,10 +7165,10 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C112" t="s">
@@ -7187,10 +7203,10 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="A113" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C113" t="s">
@@ -7225,10 +7241,10 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C114" t="s">
@@ -7263,10 +7279,10 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C115" t="s">
@@ -7301,10 +7317,10 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C116" t="s">
@@ -7339,10 +7355,10 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="10" t="s">
         <v>108</v>
       </c>
       <c r="C117" t="s">
@@ -7377,10 +7393,10 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="10" t="s">
         <v>109</v>
       </c>
       <c r="C118" t="s">
@@ -7415,10 +7431,10 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C119" t="s">
@@ -7453,10 +7469,10 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C120" t="s">
@@ -7491,10 +7507,10 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C121" t="s">
@@ -7529,10 +7545,10 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C122" t="s">
@@ -7567,10 +7583,10 @@
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="A123" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C123" t="s">
@@ -7580,7 +7596,7 @@
         <v>435</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F123" t="s">
         <v>114</v>
@@ -7605,10 +7621,10 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="A124" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C124" t="s">
@@ -7643,10 +7659,10 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="A125" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C125" t="s">
@@ -7681,10 +7697,10 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="A126" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C126" t="s">
@@ -7719,10 +7735,10 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="A127" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C127" t="s">
@@ -7757,10 +7773,10 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="A128" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C128" t="s">
@@ -7795,10 +7811,10 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="A129" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C129" t="s">
@@ -7833,10 +7849,10 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="A130" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C130" t="s">
@@ -7871,10 +7887,10 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="A131" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C131" t="s">
@@ -7909,10 +7925,10 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="A132" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C132" t="s">
@@ -7947,10 +7963,10 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="A133" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C133" t="s">
@@ -7985,10 +8001,10 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="A134" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C134" t="s">
@@ -8023,10 +8039,10 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="A135" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C135" t="s">
@@ -8061,10 +8077,10 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="A136" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C136" t="s">
@@ -8099,10 +8115,10 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="A137" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C137" t="s">
@@ -8137,10 +8153,10 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="A138" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C138" t="s">
@@ -8175,10 +8191,10 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="A139" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C139" t="s">
@@ -8213,10 +8229,10 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="A140" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C140" t="s">
@@ -8251,10 +8267,10 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="A141" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C141" t="s">
@@ -8289,10 +8305,10 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="A142" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C142" t="s">
@@ -8327,10 +8343,10 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="A143" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="10" t="s">
         <v>133</v>
       </c>
       <c r="C143" t="s">
@@ -8365,10 +8381,10 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="A144" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C144" t="s">
@@ -8403,10 +8419,10 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="A145" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C145" t="s">
@@ -8441,10 +8457,10 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="A146" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C146" t="s">
@@ -8479,10 +8495,10 @@
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="A147" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="10" t="s">
         <v>137</v>
       </c>
       <c r="C147" t="s">
@@ -8517,10 +8533,10 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="A148" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C148" t="s">
@@ -8555,10 +8571,10 @@
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="A149" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C149" t="s">
@@ -8593,10 +8609,10 @@
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="A150" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C150" t="s">
@@ -8631,10 +8647,10 @@
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="A151" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C151" t="s">
@@ -8669,10 +8685,10 @@
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="A152" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="10" t="s">
         <v>404</v>
       </c>
       <c r="C152" t="s">
@@ -8707,10 +8723,10 @@
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="A153" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C153" t="s">
@@ -8745,10 +8761,10 @@
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="A154" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="10" t="s">
         <v>143</v>
       </c>
       <c r="C154" t="s">
@@ -8783,10 +8799,10 @@
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="A155" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C155" t="s">
@@ -8796,7 +8812,7 @@
         <v>435</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F155" t="s">
         <v>649</v>
@@ -8821,10 +8837,10 @@
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="A156" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C156" t="s">
@@ -8859,10 +8875,10 @@
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="A157" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C157" t="s">
@@ -8897,10 +8913,10 @@
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="A158" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="10" t="s">
         <v>147</v>
       </c>
       <c r="C158" t="s">
@@ -8935,10 +8951,10 @@
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>435</v>
-      </c>
-      <c r="B159" t="s">
+      <c r="A159" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>652</v>
       </c>
       <c r="C159" t="s">
@@ -8973,10 +8989,10 @@
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="A160" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C160" t="s">
@@ -9011,10 +9027,10 @@
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="A161" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C161" t="s">
@@ -9049,10 +9065,10 @@
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="A162" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C162" t="s">
@@ -9087,10 +9103,10 @@
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="A163" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C163" t="s">
@@ -9125,10 +9141,10 @@
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="A164" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C164" t="s">
@@ -9163,10 +9179,10 @@
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="A165" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C165" t="s">
@@ -9201,10 +9217,10 @@
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="A166" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C166" t="s">
@@ -9239,10 +9255,10 @@
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="A167" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="10" t="s">
         <v>382</v>
       </c>
       <c r="C167" t="s">
@@ -9277,10 +9293,10 @@
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="A168" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="10" t="s">
         <v>155</v>
       </c>
       <c r="C168" t="s">
@@ -9315,10 +9331,10 @@
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="A169" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="10" t="s">
         <v>156</v>
       </c>
       <c r="C169" t="s">
@@ -9353,10 +9369,10 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="A170" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C170" t="s">
@@ -9366,7 +9382,7 @@
         <v>435</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F170" t="s">
         <v>157</v>
@@ -9391,10 +9407,10 @@
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="A171" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="10" t="s">
         <v>406</v>
       </c>
       <c r="C171" t="s">
@@ -9429,10 +9445,10 @@
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="A172" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C172" t="s">
@@ -9467,10 +9483,10 @@
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="A173" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="10" t="s">
         <v>159</v>
       </c>
       <c r="C173" t="s">
@@ -9505,10 +9521,10 @@
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="A174" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C174" t="s">
@@ -9543,10 +9559,10 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="A175" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="10" t="s">
         <v>409</v>
       </c>
       <c r="C175" t="s">
@@ -9581,10 +9597,10 @@
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="A176" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C176" t="s">
@@ -9619,10 +9635,10 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="A177" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="10" t="s">
         <v>162</v>
       </c>
       <c r="C177" t="s">
@@ -9657,10 +9673,10 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="A178" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="10" t="s">
         <v>163</v>
       </c>
       <c r="C178" t="s">
@@ -9695,10 +9711,10 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>435</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="A179" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B179" s="10" t="s">
         <v>739</v>
       </c>
       <c r="C179" t="s">
@@ -9733,10 +9749,10 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="A180" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="10" t="s">
         <v>164</v>
       </c>
       <c r="C180" t="s">
@@ -9771,10 +9787,10 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="A181" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="10" t="s">
         <v>165</v>
       </c>
       <c r="C181" t="s">
@@ -9809,10 +9825,10 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="A182" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="10" t="s">
         <v>166</v>
       </c>
       <c r="C182" t="s">
@@ -9847,10 +9863,10 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="A183" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="10" t="s">
         <v>167</v>
       </c>
       <c r="C183" t="s">
@@ -9885,10 +9901,10 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="A184" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C184" t="s">
@@ -9923,10 +9939,10 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="A185" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="10" t="s">
         <v>169</v>
       </c>
       <c r="C185" t="s">
@@ -9961,10 +9977,10 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="A186" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C186" t="s">
@@ -9999,10 +10015,10 @@
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+      <c r="A187" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="10" t="s">
         <v>171</v>
       </c>
       <c r="C187" t="s">
@@ -10037,10 +10053,10 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="A188" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C188" t="s">
@@ -10075,10 +10091,10 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="A189" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C189" t="s">
@@ -10113,10 +10129,10 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="A190" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C190" t="s">
@@ -10151,10 +10167,10 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+      <c r="A191" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C191" t="s">
@@ -10164,7 +10180,7 @@
         <v>435</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F191" t="s">
         <v>175</v>
@@ -10189,10 +10205,10 @@
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+      <c r="A192" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="10" t="s">
         <v>176</v>
       </c>
       <c r="C192" t="s">
@@ -10227,10 +10243,10 @@
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+      <c r="A193" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="10" t="s">
         <v>177</v>
       </c>
       <c r="C193" t="s">
@@ -10265,10 +10281,10 @@
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+      <c r="A194" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="10" t="s">
         <v>178</v>
       </c>
       <c r="C194" t="s">
@@ -10303,10 +10319,10 @@
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+      <c r="A195" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="10" t="s">
         <v>179</v>
       </c>
       <c r="C195" t="s">
@@ -10341,10 +10357,10 @@
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+      <c r="A196" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C196" t="s">
@@ -10379,10 +10395,10 @@
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="A197" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C197" t="s">
@@ -10417,10 +10433,10 @@
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+      <c r="A198" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C198" t="s">
@@ -10455,10 +10471,10 @@
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+      <c r="A199" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="10" t="s">
         <v>183</v>
       </c>
       <c r="C199" t="s">
@@ -10493,10 +10509,10 @@
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="A200" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="10" t="s">
         <v>184</v>
       </c>
       <c r="C200" t="s">
@@ -10531,10 +10547,10 @@
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+      <c r="A201" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="10" t="s">
         <v>185</v>
       </c>
       <c r="C201" t="s">
@@ -10587,67 +10603,77 @@
       </c>
     </row>
     <row r="204" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="4" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="205" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>742</v>
-      </c>
-      <c r="B205" t="s">
+      <c r="A205" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B207" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="B206" s="6" t="s">
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A208" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="B210" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A212" s="7" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>745</v>
-      </c>
-      <c r="B208" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>743</v>
-      </c>
-      <c r="B209" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B210" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A212" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>752</v>
+      <c r="B212" s="8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="5" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
